--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,240 +43,237 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
     <t>ripped</t>
   </si>
   <si>
     <t>disappointment</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>inches</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>returned</t>
   </si>
   <si>
     <t>loose</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>pool</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>water</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>noise</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>tiny</t>
+    <t>probably</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>okay</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>okay</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>lasted</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>un</t>
+    <t>might</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>fell</t>
   </si>
   <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
     <t>short</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
     <t>pay</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>fl</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>thought</t>
+    <t>bit</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>color</t>
+    <t>though</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>worked</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
     <t>back</t>
   </si>
   <si>
+    <t>pieces</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
     <t>used</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>two</t>
+    <t>like</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
@@ -289,39 +286,33 @@
     <t>toy</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -334,67 +325,82 @@
     <t>great</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>grandchildren</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
-    <t>enjoys</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>birthday</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>birthday</t>
-  </si>
-  <si>
     <t>book</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>cute</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>playing</t>
   </si>
   <si>
     <t>play</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>good</t>
@@ -758,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -766,10 +772,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -827,13 +833,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -845,19 +851,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -877,13 +883,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -895,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -919,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -927,13 +933,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7931034482758621</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -945,31 +951,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="L5">
+        <v>50</v>
+      </c>
+      <c r="M5">
+        <v>50</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>6</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L5">
-        <v>23</v>
-      </c>
-      <c r="M5">
-        <v>23</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -977,13 +983,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7619047619047619</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -995,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K6">
-        <v>0.8172043010752689</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L6">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1019,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1027,13 +1033,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7407407407407407</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1045,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K7">
-        <v>0.8</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1069,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1077,49 +1083,49 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7142857142857143</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8">
+        <v>0.765625</v>
+      </c>
+      <c r="L8">
+        <v>49</v>
+      </c>
+      <c r="M8">
+        <v>49</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>15</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K8">
-        <v>0.734375</v>
-      </c>
-      <c r="L8">
-        <v>47</v>
-      </c>
-      <c r="M8">
-        <v>47</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1127,13 +1133,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.703125</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1145,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K9">
-        <v>0.660377358490566</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1169,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1177,13 +1183,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6827956989247311</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="C10">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D10">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1195,19 +1201,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K10">
-        <v>0.625</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1219,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1248,16 +1254,16 @@
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K11">
-        <v>0.5408895265423243</v>
+        <v>0.5451936872309899</v>
       </c>
       <c r="L11">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M11">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1269,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1277,13 +1283,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.676056338028169</v>
+        <v>0.671875</v>
       </c>
       <c r="C12">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D12">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1295,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K12">
         <v>0.5362318840579711</v>
@@ -1327,13 +1333,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6521739130434783</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1345,19 +1351,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K13">
-        <v>0.4896265560165975</v>
+        <v>0.4937759336099585</v>
       </c>
       <c r="L13">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M13">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1369,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1377,13 +1383,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6351351351351351</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C14">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1395,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K14">
-        <v>0.459016393442623</v>
+        <v>0.4467213114754098</v>
       </c>
       <c r="L14">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="M14">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1419,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>660</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1427,13 +1433,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6262135922330098</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C15">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1445,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K15">
-        <v>0.363914373088685</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="L15">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="M15">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1469,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>208</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1477,13 +1483,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6041666666666666</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1495,19 +1501,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K16">
-        <v>0.3253012048192771</v>
+        <v>0.3544973544973545</v>
       </c>
       <c r="L16">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="M16">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1519,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1527,13 +1533,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1545,19 +1551,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K17">
-        <v>0.2962962962962963</v>
+        <v>0.3486238532110092</v>
       </c>
       <c r="L17">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="M17">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1569,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>133</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1577,13 +1583,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5789473684210527</v>
+        <v>0.6067961165048543</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1595,19 +1601,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K18">
-        <v>0.2916666666666667</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1619,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1627,13 +1633,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5630252100840336</v>
+        <v>0.5625</v>
       </c>
       <c r="C19">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1645,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K19">
-        <v>0.2830188679245283</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1669,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1677,13 +1683,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5555555555555556</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1695,19 +1701,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K20">
-        <v>0.25</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1719,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1727,13 +1733,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5428571428571428</v>
+        <v>0.5462184873949579</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1745,13 +1751,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K21">
-        <v>0.2459016393442623</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L21">
         <v>15</v>
@@ -1769,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1777,13 +1783,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5238095238095238</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1795,19 +1801,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K22">
-        <v>0.2008032128514056</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L22">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1819,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>199</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1827,49 +1833,49 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5161290322580645</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C23">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>25</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="L23">
         <v>16</v>
       </c>
-      <c r="D23">
-        <v>16</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>15</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K23">
-        <v>0.1774193548387097</v>
-      </c>
-      <c r="L23">
-        <v>33</v>
-      </c>
       <c r="M23">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>153</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1877,13 +1883,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5142857142857142</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1895,19 +1901,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K24">
-        <v>0.176</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1919,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>103</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1927,13 +1933,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5101449275362319</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C25">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1945,19 +1951,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K25">
-        <v>0.1746031746031746</v>
+        <v>0.1875</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1977,13 +1983,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4888888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1995,19 +2001,19 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>19</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26">
+        <v>0.184</v>
+      </c>
+      <c r="L26">
         <v>23</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K26">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="L26">
-        <v>22</v>
-      </c>
       <c r="M26">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2019,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2027,13 +2033,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4736842105263158</v>
+        <v>0.4695652173913044</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2045,19 +2051,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K27">
-        <v>0.1411042944785276</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="L27">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2069,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>980</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2098,16 +2104,16 @@
         <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K28">
-        <v>0.1367521367521368</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2119,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2148,16 +2154,16 @@
         <v>36</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K29">
-        <v>0.1038961038961039</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2169,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>138</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2177,13 +2183,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4074074074074074</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2195,31 +2201,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K30">
-        <v>0.07857142857142857</v>
+        <v>0.1526104417670683</v>
       </c>
       <c r="L30">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="N30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>1419</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2227,13 +2233,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4047619047619048</v>
+        <v>0.4</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2245,19 +2251,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K31">
-        <v>0.06951871657754011</v>
+        <v>0.1498685363716039</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2269,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>348</v>
+        <v>970</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2277,13 +2283,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C32">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2295,19 +2301,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K32">
-        <v>0.06685236768802229</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="L32">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M32">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2319,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>335</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2327,13 +2333,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4</v>
+        <v>0.3838862559241706</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2345,19 +2351,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K33">
-        <v>0.06614785992217899</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2369,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>240</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2377,13 +2383,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3886255924170616</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C34">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="D34">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2395,19 +2401,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K34">
-        <v>0.05246913580246913</v>
+        <v>0.08077994428969359</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2419,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>307</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2427,13 +2433,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3855421686746988</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C35">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2445,31 +2451,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K35">
-        <v>0.03738317757009346</v>
+        <v>0.07667316439246263</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="N35">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="O35">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>721</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2498,28 +2504,28 @@
         <v>79</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K36">
-        <v>0.02139800285306705</v>
+        <v>0.07003891050583658</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N36">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>686</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2527,13 +2533,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3720930232558139</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2545,7 +2551,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K37">
+        <v>0.06206896551724138</v>
+      </c>
+      <c r="L37">
+        <v>18</v>
+      </c>
+      <c r="M37">
+        <v>18</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2553,13 +2583,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3636363636363636</v>
+        <v>0.359375</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2571,7 +2601,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>35</v>
+        <v>82</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K38">
+        <v>0.05572755417956656</v>
+      </c>
+      <c r="L38">
+        <v>18</v>
+      </c>
+      <c r="M38">
+        <v>19</v>
+      </c>
+      <c r="N38">
+        <v>0.95</v>
+      </c>
+      <c r="O38">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2579,13 +2633,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3469387755102041</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C39">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2597,7 +2651,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K39">
+        <v>0.05059920106524634</v>
+      </c>
+      <c r="L39">
+        <v>38</v>
+      </c>
+      <c r="M39">
+        <v>39</v>
+      </c>
+      <c r="N39">
+        <v>0.97</v>
+      </c>
+      <c r="O39">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>713</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2608,10 +2686,10 @@
         <v>0.34375</v>
       </c>
       <c r="C40">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2623,7 +2701,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>84</v>
+        <v>42</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K40">
+        <v>0.03012048192771084</v>
+      </c>
+      <c r="L40">
+        <v>15</v>
+      </c>
+      <c r="M40">
+        <v>17</v>
+      </c>
+      <c r="N40">
+        <v>0.88</v>
+      </c>
+      <c r="O40">
+        <v>0.12</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>483</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2631,25 +2733,49 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3392857142857143</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C41">
+        <v>18</v>
+      </c>
+      <c r="D41">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>36</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K41">
+        <v>0.02418207681365576</v>
+      </c>
+      <c r="L41">
+        <v>17</v>
+      </c>
+      <c r="M41">
         <v>19</v>
       </c>
-      <c r="D41">
-        <v>19</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>37</v>
+      <c r="N41">
+        <v>0.89</v>
+      </c>
+      <c r="O41">
+        <v>0.11</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>686</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2657,13 +2783,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3333333333333333</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C42">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D42">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2675,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2683,13 +2809,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.328125</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D43">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2701,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2735,13 +2861,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.293103448275862</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D45">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2753,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2761,13 +2887,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2921348314606741</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="C46">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D46">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2779,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2787,13 +2913,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2835820895522388</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="C47">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D47">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2805,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2813,13 +2939,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2786885245901639</v>
+        <v>0.2524752475247525</v>
       </c>
       <c r="C48">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D48">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2831,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>44</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2839,13 +2965,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2623762376237624</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="C49">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D49">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2857,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>149</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2865,13 +2991,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2463768115942029</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2883,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2891,13 +3017,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2448979591836735</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C51">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2909,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2917,13 +3043,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.24</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C52">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D52">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2935,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2943,13 +3069,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.211340206185567</v>
+        <v>0.2216494845360825</v>
       </c>
       <c r="C53">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D53">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2961,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2969,13 +3095,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2061855670103093</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C54">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2987,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2995,13 +3121,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2051282051282051</v>
+        <v>0.175</v>
       </c>
       <c r="C55">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D55">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3013,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>93</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3021,13 +3147,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2033898305084746</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="C56">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D56">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3039,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3047,13 +3173,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1811594202898551</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="C57">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D57">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3065,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>226</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3073,13 +3199,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.175</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="C58">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D58">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3091,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>165</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3099,13 +3225,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1666666666666667</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C59">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D59">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3117,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>90</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3125,25 +3251,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1619047619047619</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="C60">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D60">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E60">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>264</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3151,25 +3277,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1587537091988131</v>
+        <v>0.1556195965417868</v>
       </c>
       <c r="C61">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="D61">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>567</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3177,25 +3303,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1582278481012658</v>
+        <v>0.150297619047619</v>
       </c>
       <c r="C62">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="D62">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>266</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3203,13 +3329,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1551724137931035</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="C63">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D63">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3221,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>294</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3229,13 +3355,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1401273885350318</v>
+        <v>0.1455696202531646</v>
       </c>
       <c r="C64">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D64">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3247,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>135</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3255,13 +3381,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1357142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C65">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D65">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3273,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3281,13 +3407,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1355140186915888</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="C66">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D66">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3299,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3307,13 +3433,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1314285714285714</v>
+        <v>0.1261682242990654</v>
       </c>
       <c r="C67">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D67">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3325,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>152</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3333,25 +3459,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1308900523560209</v>
+        <v>0.1258278145695364</v>
       </c>
       <c r="C68">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D68">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>166</v>
+        <v>396</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3359,13 +3485,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.118942731277533</v>
+        <v>0.1171875</v>
       </c>
       <c r="C69">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D69">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3377,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>400</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3385,13 +3511,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1168831168831169</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="C70">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D70">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3403,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>136</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3411,25 +3537,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1161048689138577</v>
+        <v>0.1056603773584906</v>
       </c>
       <c r="C71">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D71">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3437,25 +3563,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1092896174863388</v>
+        <v>0.1012145748987854</v>
       </c>
       <c r="C72">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D72">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>163</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3463,13 +3589,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.09677419354838709</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="C73">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D73">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3481,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>224</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3489,13 +3615,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09375</v>
+        <v>0.09714285714285714</v>
       </c>
       <c r="C74">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D74">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3507,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3515,25 +3641,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.08021390374331551</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C75">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D75">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E75">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="F75">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3541,13 +3667,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.07887323943661972</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="C76">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D76">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3559,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3567,25 +3693,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.07829977628635347</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="C77">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D77">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E77">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F77">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3593,13 +3719,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07671232876712329</v>
+        <v>0.06760563380281689</v>
       </c>
       <c r="C78">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D78">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3611,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3619,25 +3745,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.07653061224489796</v>
+        <v>0.066006600660066</v>
       </c>
       <c r="C79">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D79">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>181</v>
+        <v>566</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3645,25 +3771,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.07168458781362007</v>
+        <v>0.06115107913669065</v>
       </c>
       <c r="C80">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D80">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E80">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="F80">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3671,25 +3797,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.0642504118616145</v>
+        <v>0.05696202531645569</v>
       </c>
       <c r="C81">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D81">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E81">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F81">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>568</v>
+        <v>298</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3697,25 +3823,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.05379746835443038</v>
+        <v>0.04672897196261682</v>
       </c>
       <c r="C82">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D82">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E82">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="F82">
-        <v>0.9399999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>299</v>
+        <v>408</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3723,25 +3849,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04662004662004662</v>
+        <v>0.04309252217997465</v>
       </c>
       <c r="C83">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D83">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E83">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="F83">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>409</v>
+        <v>755</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3749,103 +3875,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.04447268106734435</v>
+        <v>0.04128440366972477</v>
       </c>
       <c r="C84">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D84">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E84">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="F84">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85">
-        <v>0.0382262996941896</v>
-      </c>
-      <c r="C85">
-        <v>25</v>
-      </c>
-      <c r="D85">
-        <v>26</v>
-      </c>
-      <c r="E85">
-        <v>0.04</v>
-      </c>
-      <c r="F85">
-        <v>0.96</v>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86">
-        <v>0.03764705882352941</v>
-      </c>
-      <c r="C86">
-        <v>16</v>
-      </c>
-      <c r="D86">
-        <v>20</v>
-      </c>
-      <c r="E86">
-        <v>0.2</v>
-      </c>
-      <c r="F86">
-        <v>0.8</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87">
-        <v>0.02982107355864811</v>
-      </c>
-      <c r="C87">
-        <v>15</v>
-      </c>
-      <c r="D87">
-        <v>16</v>
-      </c>
-      <c r="E87">
-        <v>0.06</v>
-      </c>
-      <c r="F87">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G87" t="b">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>488</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
